--- a/Inputs/Orange_Neuron/addons.xlsx
+++ b/Inputs/Orange_Neuron/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,14 +23,11 @@
     <sheet name="Maternity-Addon" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Accommodation Type'!$A$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$28</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$E$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Consultations'!$A$1:$G$8</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$E$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$32</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Scans &amp; Diagnostic Tests'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="164">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -113,136 +110,67 @@
     <t xml:space="preserve">Regional Plus- Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">Suite Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shared Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with NIL co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 5% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 15% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 5% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 10% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 15% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% up to AED 50 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% up to AED 20 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 10% up to AED 20 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% up to AED 25 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 10% up to AED 25 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% up to AED 30 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 10% up to AED 30 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% up to AED 75 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 10% up to AED 75 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% up to AED 100 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 10% up to AED 100 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to AED 10 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% up to AED 10 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to AED 20 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% up to AED 20 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to AED 25 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% up to AED 25 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to AED 30 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% up to AED 30 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to AED 75 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% up to AED 75 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% up to AED 100 co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full with 20% up to AED 100 co-pay</t>
+    <t xml:space="preserve">Suite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi Private </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIL deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with NIL deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 10 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with AED 10 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 20 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with AED 20 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 25 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with AED 25 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 30 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with AED 30 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 50 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with AED 50 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 75 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with AED 75 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 100 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full with AED 100 deductible</t>
   </si>
   <si>
     <t xml:space="preserve">deductible</t>
@@ -554,6 +482,12 @@
     <t xml:space="preserve">gender</t>
   </si>
   <si>
+    <t xml:space="preserve">ageStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageEnd</t>
+  </si>
+  <si>
     <t xml:space="preserve">maritalStatus</t>
   </si>
   <si>
@@ -569,7 +503,7 @@
     <t xml:space="preserve">Maternity Addon</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered in full IP- Covered up to AED 10,000 with 10% co-pay (Optional Benefits Available)</t>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered in full with AED 500 deductible</t>
   </si>
   <si>
     <t xml:space="preserve">female</t>
@@ -584,109 +518,16 @@
     <t xml:space="preserve">Maternity-Addon</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 7,500 with 10% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">m2</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 15,000 with 10% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">m3</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 20,00 with 10% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">m4</t>
   </si>
   <si>
-    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 25,000 with 10% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">m5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 30,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 40,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 50,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m29</t>
   </si>
   <si>
     <t xml:space="preserve">Optical Addon</t>
@@ -771,18 +612,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -828,7 +663,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -889,30 +724,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,7 +737,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -942,74 +753,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF972F"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF972F"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1033,18 +777,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1052,16 +784,16 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,17 +1596,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.82"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1890,177 +1618,51 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>213</v>
+        <v>131</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2078,16 +1680,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.68"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2103,171 +1702,51 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>214</v>
+        <v>131</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2285,17 +1764,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.09"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2311,171 +1786,51 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>215</v>
+        <v>131</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2493,639 +1848,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>3824</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>172</v>
+        <v>6842</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>3673</v>
+        <v>6343</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>175</v>
+        <v>149</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>5031</v>
+        <v>4511</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>177</v>
+        <v>149</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>5434</v>
+        <v>4123</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>179</v>
+        <v>149</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>5736</v>
+        <v>3470</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>181</v>
+        <v>149</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6390</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>183</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>6490</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>185</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>6692</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>188</v>
-      </c>
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>3405</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>4664</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>190</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>5037</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>5317</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>192</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>5924</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>193</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>6017</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>194</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>6204</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>2521</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>2422</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>3317</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>3583</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>3782</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>4213</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>2304</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>3032</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>3274</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>1939</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>1862</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>2551</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="E54" s="15"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="E59" s="15"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3145,18 +2042,18 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,7 +2078,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3358,10 +2255,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3414,10 +2311,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3498,10 +2395,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3582,10 +2479,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3606,7 +2503,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H16"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3614,7 +2510,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3625,16 +2520,16 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,10 +2560,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3689,18 +2584,18 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>29</v>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-2</v>
+        <v>-0.3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -3714,18 +2609,18 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>31</v>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-4</v>
+        <v>-0.61</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -3739,18 +2634,18 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-6</v>
+        <v>-0.76</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -3764,18 +2659,18 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-8</v>
+        <v>-0.91</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -3785,22 +2680,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.54</v>
+        <v>-1.52</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -3810,22 +2705,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.12</v>
+        <v>-2.28</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -3835,22 +2730,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.43</v>
+        <v>-3.04</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -3860,30 +2755,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2"/>
@@ -3942,7 +2820,6 @@
       <c r="G17" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3950,7 +2827,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3961,16 +2837,16 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4025,11 +2901,11 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>45</v>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4050,11 +2926,11 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>47</v>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4075,11 +2951,11 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>49</v>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4100,18 +2976,18 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -4125,18 +3001,18 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>51</v>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1</v>
+        <v>-1.81</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -4150,18 +3026,18 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>53</v>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.97</v>
+        <v>-3.63</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -4171,180 +3047,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9"/>
@@ -4395,7 +3152,6 @@
       <c r="G21" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4403,7 +3159,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4415,15 +3170,10 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.64"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4442,12 +3192,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4461,12 +3211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>45</v>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4480,12 +3230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>47</v>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4499,12 +3249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>49</v>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4518,12 +3268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4537,12 +3287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>51</v>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4556,12 +3306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>53</v>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4576,137 +3326,53 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -4768,15 +3434,16 @@
   </sheetPr>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4796,7 +3463,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -4810,10 +3477,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4823,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -4837,10 +3504,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4850,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -4864,10 +3531,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4877,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -4891,10 +3558,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4904,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -4918,10 +3585,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4931,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -4945,10 +3612,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4958,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -4972,10 +3639,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4985,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -4999,10 +3666,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5012,7 +3679,7 @@
         <v>-2.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -5026,10 +3693,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5039,7 +3706,7 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -5053,10 +3720,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5066,7 +3733,7 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -5080,10 +3747,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5093,7 +3760,7 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -5107,10 +3774,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5120,7 +3787,7 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -5134,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5147,7 +3814,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -5161,10 +3828,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5174,7 +3841,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -5188,10 +3855,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5201,7 +3868,7 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -5215,10 +3882,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5228,7 +3895,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -5242,10 +3909,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5255,7 +3922,7 @@
         <v>-2.5</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -5269,10 +3936,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5282,7 +3949,7 @@
         <v>-2.25</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -5296,10 +3963,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5309,7 +3976,7 @@
         <v>-2</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -5323,10 +3990,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5336,7 +4003,7 @@
         <v>-1.75</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -5350,10 +4017,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5363,7 +4030,7 @@
         <v>-1.25</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -5377,10 +4044,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5390,7 +4057,7 @@
         <v>-1</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -5404,10 +4071,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5417,7 +4084,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -5431,10 +4098,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5444,7 +4111,7 @@
         <v>-0.5</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -5458,10 +4125,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5471,7 +4138,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -5485,10 +4152,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5498,7 +4165,7 @@
         <v>-2.5</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -5512,10 +4179,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5525,7 +4192,7 @@
         <v>-2.25</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -5539,10 +4206,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5552,7 +4219,7 @@
         <v>-2</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -5566,10 +4233,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5579,7 +4246,7 @@
         <v>-1.75</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -5593,10 +4260,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5606,7 +4273,7 @@
         <v>-1.25</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -5620,10 +4287,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5633,7 +4300,7 @@
         <v>-1</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -5647,10 +4314,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5660,7 +4327,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -5674,10 +4341,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5687,7 +4354,7 @@
         <v>-0.5</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
@@ -5701,10 +4368,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5714,7 +4381,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
@@ -5728,10 +4395,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5741,7 +4408,7 @@
         <v>-2.5</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>11</v>
@@ -5755,10 +4422,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5768,7 +4435,7 @@
         <v>-2.25</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>11</v>
@@ -5782,10 +4449,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5795,7 +4462,7 @@
         <v>-2</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>11</v>
@@ -5809,10 +4476,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5822,7 +4489,7 @@
         <v>-1.75</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
@@ -5836,10 +4503,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5849,7 +4516,7 @@
         <v>-1.25</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -5863,10 +4530,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5876,7 +4543,7 @@
         <v>-1</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
@@ -5890,10 +4557,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5903,7 +4570,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
@@ -5917,10 +4584,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5930,7 +4597,7 @@
         <v>-0.5</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
@@ -5944,10 +4611,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5957,7 +4624,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
@@ -5971,10 +4638,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5984,7 +4651,7 @@
         <v>-2.5</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>11</v>
@@ -5998,10 +4665,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6011,7 +4678,7 @@
         <v>-2.25</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
@@ -6025,10 +4692,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6038,7 +4705,7 @@
         <v>-2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>11</v>
@@ -6052,10 +4719,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6065,7 +4732,7 @@
         <v>-1.75</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>11</v>
@@ -6079,10 +4746,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6092,7 +4759,7 @@
         <v>-1.25</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>11</v>
@@ -6106,10 +4773,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6119,7 +4786,7 @@
         <v>-1</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>11</v>
@@ -6133,10 +4800,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6146,7 +4813,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>11</v>
@@ -6160,10 +4827,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6173,7 +4840,7 @@
         <v>-0.5</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>11</v>
@@ -6187,10 +4854,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6200,7 +4867,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>11</v>
@@ -6214,10 +4881,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6227,7 +4894,7 @@
         <v>-2.5</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>11</v>
@@ -6241,10 +4908,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6254,7 +4921,7 @@
         <v>-2.25</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>11</v>
@@ -6268,10 +4935,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6281,7 +4948,7 @@
         <v>-2</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>11</v>
@@ -6295,10 +4962,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6308,7 +4975,7 @@
         <v>-1.75</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>11</v>
@@ -6322,10 +4989,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6335,7 +5002,7 @@
         <v>-1.25</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>11</v>
@@ -6349,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6362,7 +5029,7 @@
         <v>-1</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>11</v>
@@ -6376,10 +5043,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6389,7 +5056,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>11</v>
@@ -6403,10 +5070,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6416,7 +5083,7 @@
         <v>-0.5</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>11</v>
@@ -6430,10 +5097,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6443,7 +5110,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>11</v>
@@ -6457,10 +5124,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6470,7 +5137,7 @@
         <v>-2.5</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>11</v>
@@ -6484,10 +5151,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6497,7 +5164,7 @@
         <v>-2.25</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>11</v>
@@ -6511,10 +5178,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6524,7 +5191,7 @@
         <v>-2</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>11</v>
@@ -6538,10 +5205,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6551,7 +5218,7 @@
         <v>-1.75</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>11</v>
@@ -6565,10 +5232,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6578,7 +5245,7 @@
         <v>-1.25</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>11</v>
@@ -6592,10 +5259,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6605,7 +5272,7 @@
         <v>-1</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>11</v>
@@ -6619,10 +5286,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6632,7 +5299,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>11</v>
@@ -6646,10 +5313,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6659,7 +5326,7 @@
         <v>-0.5</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>11</v>
@@ -6673,10 +5340,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6686,7 +5353,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>11</v>
@@ -6700,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6713,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>11</v>
@@ -6727,10 +5394,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6740,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>11</v>
@@ -6754,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D74" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6767,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>11</v>
@@ -6781,10 +5448,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D75" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6794,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>11</v>
@@ -6808,10 +5475,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D76" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6821,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>11</v>
@@ -6835,10 +5502,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6848,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>11</v>
@@ -6862,10 +5529,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6875,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>11</v>
@@ -6904,17 +5571,17 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,35 +5607,35 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D2" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6977,13 +5644,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6999,7 +5666,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7008,13 +5675,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7030,7 +5697,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7039,13 +5706,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7061,7 +5728,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7070,13 +5737,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7092,7 +5759,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7101,13 +5768,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7123,7 +5790,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7132,13 +5799,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7154,7 +5821,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7163,13 +5830,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7185,7 +5852,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7194,13 +5861,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7216,7 +5883,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7225,13 +5892,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7247,7 +5914,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7256,13 +5923,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7278,7 +5945,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7287,13 +5954,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7309,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7318,13 +5985,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7340,7 +6007,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7349,13 +6016,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7371,7 +6038,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7380,13 +6047,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7402,7 +6069,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7411,13 +6078,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7433,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7442,13 +6109,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7464,7 +6131,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7473,13 +6140,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7495,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7504,13 +6171,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7526,7 +6193,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7535,13 +6202,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7557,7 +6224,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7566,13 +6233,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7588,7 +6255,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7597,13 +6264,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7619,7 +6286,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7628,13 +6295,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7650,7 +6317,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7659,13 +6326,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7681,7 +6348,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7690,13 +6357,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7712,7 +6379,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7721,13 +6388,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7743,7 +6410,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7752,13 +6419,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7774,7 +6441,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7783,13 +6450,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7805,7 +6472,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7814,13 +6481,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7836,7 +6503,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7845,13 +6512,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7867,7 +6534,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7875,7 +6542,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7892,21 +6559,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ59"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,1525 +6596,312 @@
         <v>6</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AMJ2" s="15"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>146</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>146</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>180</v>
+        <v>146</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AMJ10" s="15"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="4"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AMJ18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AMJ24" s="15"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="17" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AMJ28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="4"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="4"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="H34" s="4"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-      <c r="H35" s="4"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="H36" s="4"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="4"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="H38" s="4"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="4"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="H41" s="4"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="H42" s="4"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-      <c r="H43" s="4"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
-      <c r="H44" s="4"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="H45" s="4"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-      <c r="H46" s="4"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="16"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="4"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
-      <c r="H49" s="4"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
-      <c r="H50" s="4"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="4"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
-      <c r="H52" s="4"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2"/>
-      <c r="H54" s="4"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="4"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="10"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
-      <c r="H56" s="4"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="10"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
-      <c r="H58" s="4"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="10"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="4"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="10"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="N11" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E30"/>
+  <autoFilter ref="A1:E6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9464,18 +6918,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,7 +6955,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
@@ -9509,27 +6963,27 @@
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D2" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9538,13 +6992,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9560,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9569,13 +7023,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9591,7 +7045,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9600,13 +7054,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9622,7 +7076,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9631,13 +7085,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9653,7 +7107,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9662,13 +7116,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9684,7 +7138,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9693,13 +7147,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9715,7 +7169,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9724,13 +7178,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9746,7 +7200,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9755,13 +7209,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9777,7 +7231,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9786,13 +7240,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9808,7 +7262,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9817,13 +7271,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9839,7 +7293,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9848,13 +7302,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9870,7 +7324,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9879,13 +7333,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9901,7 +7355,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9910,13 +7364,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9932,7 +7386,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9941,13 +7395,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9963,7 +7417,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9972,13 +7426,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -9994,7 +7448,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10003,13 +7457,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10025,7 +7479,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10034,13 +7488,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10056,7 +7510,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10065,13 +7519,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10087,7 +7541,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10096,13 +7550,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10118,7 +7572,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10127,13 +7581,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10149,7 +7603,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10158,13 +7612,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10180,7 +7634,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10189,13 +7643,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10211,7 +7665,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10220,13 +7674,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10242,7 +7696,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10251,13 +7705,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10273,7 +7727,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10282,13 +7736,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10304,7 +7758,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10313,13 +7767,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10335,7 +7789,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10344,13 +7798,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10366,7 +7820,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10375,13 +7829,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10397,7 +7851,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10406,13 +7860,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10428,7 +7882,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10437,13 +7891,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -10459,36 +7913,15 @@
         <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F30"/>
+  <autoFilter ref="A1:F32"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
